--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -179,6 +179,26 @@
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +567,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -615,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -632,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -649,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -666,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|奖励ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +290,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,9 +584,10 @@
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -595,8 +603,11 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -612,8 +623,11 @@
       <c r="E2">
         <v>12000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>11751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -629,8 +643,11 @@
       <c r="E3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>11752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -646,8 +663,11 @@
       <c r="E4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>11753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -663,8 +683,11 @@
       <c r="E5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>11754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -680,8 +703,11 @@
       <c r="E6">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>11755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -132,30 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_3","com_award_icon_dhq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yxb_2","com_award_icon_dhq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","com_award_icon_dhq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_4","com_award_icon_dhq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_5","com_award_icon_dhq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","com_award_icon_dhq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12000金币</t>
   </si>
   <si>
@@ -204,6 +180,24 @@
   <si>
     <t>award_id|奖励ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","ty_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_2","ty_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_4","ty_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_5","ty_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","ty_icon_cjq",</t>
   </si>
 </sst>
 </file>
@@ -573,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -612,13 +606,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E2">
         <v>12000</v>
@@ -635,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -652,13 +646,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>20000</v>
@@ -672,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -692,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>50000</v>
@@ -712,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -735,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -803,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -823,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -843,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -863,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -883,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -199,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cychl_iocn_jdk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>key|权限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>cps_xiaomi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jdk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,7 +588,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +622,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -642,7 +645,7 @@
         <v>11773</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -665,7 +668,7 @@
         <v>11774</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,7 +691,7 @@
         <v>11775</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -711,7 +714,7 @@
         <v>11776</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -734,15 +737,15 @@
         <v>11777</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
@@ -752,7 +755,7 @@
         <v>11778</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_48y","ty_icon_yb_1_1","ty_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_50y","ty_icon_yb_2","ty_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>ty_icon_jdk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yb_1","ty_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
         <v>11773</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>11774</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>11775</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>11776</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>11777</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -745,17 +745,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="6">
         <v>11778</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -877,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -108,30 +108,6 @@
     <t>498元礼包</t>
   </si>
   <si>
-    <t>"60万","3000","抽奖券*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","1万","抽奖券*4",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万","3万","抽奖券*10",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","10万","抽奖券*20",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万","抽奖券*30",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万","抽奖券*50",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12000金币</t>
   </si>
   <si>
@@ -171,26 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_30y","ty_icon_yb_1","ty_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yb_2","ty_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yb_3","ty_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yb_4","ty_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yb_5","ty_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>500京东卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,7 +166,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_48y","ty_icon_yb_1","ty_icon_cjq",</t>
+    <t>"金币*60万","福利券*3000","抽奖券*1",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*200万","福利券*1万","抽奖券*4",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*480万","福利券*3万","抽奖券*10",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*980万","福利券*10万","抽奖券*20",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*1980万","福利券*50万","抽奖券*30",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*4980万","福利券*200万","抽奖券*50",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yb_1","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yb_1","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yb_2","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yb_3","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yb_4","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yb_5","cwzp_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -630,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>12000</v>
@@ -645,7 +645,7 @@
         <v>11773</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -668,7 +668,7 @@
         <v>11774</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -676,13 +676,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>20000</v>
@@ -691,7 +691,7 @@
         <v>11775</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -699,10 +699,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -714,7 +714,7 @@
         <v>11776</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -722,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>50000</v>
@@ -737,7 +737,7 @@
         <v>11777</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -745,17 +745,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="6">
         <v>11778</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +770,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,10 +877,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -917,10 +917,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -166,30 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"金币*60万","福利券*3000","抽奖券*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*200万","福利券*1万","抽奖券*4",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*480万","福利券*3万","抽奖券*10",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*980万","福利券*10万","抽奖券*20",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*1980万","福利券*50万","抽奖券*30",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*4980万","福利券*200万","抽奖券*50",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_yb_1","cwzp_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,6 +187,34 @@
   </si>
   <si>
     <t>"ty_icon_jb_498y","ty_icon_yb_5","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*60万","鱼币*3000","抽奖券*1",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*200万","鱼币*1万","抽奖券*4",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*480万","鱼币*3万","抽奖券*10",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*980万","鱼币*10万","抽奖券*20",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*1980万","鱼币*50万","抽奖券*30",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*4980万","鱼币*200万","抽奖券*50",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,8 +662,8 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -770,7 +774,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,10 +841,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -857,10 +861,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,10 +881,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,10 +901,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -917,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_030_cwlb_config.xlsx
+++ b/config_debug/act_030_cwlb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="10">
-        <v>11855</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>20000</v>
       </c>
       <c r="F4" s="10">
-        <v>11854</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>11853</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>50000</v>
       </c>
       <c r="F6" s="10">
-        <v>11852</v>
+        <v>11855</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
